--- a/database/industries/shoyande/shegol/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9463E457-7A7B-4148-ACC5-06837A6EFBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,13 +49,13 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-08-06 (6)</t>
+    <t>1401-10-30 (7)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -67,6 +65,9 @@
   </si>
   <si>
     <t>1401-08-06</t>
+  </si>
+  <si>
+    <t>1401-10-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,21 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +720,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +742,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +751,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +782,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -789,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -798,7 +833,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -809,37 +844,37 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>567540</v>
+        <v>614192</v>
       </c>
       <c r="E12" s="15">
-        <v>614192</v>
+        <v>216486</v>
       </c>
       <c r="F12" s="15">
-        <v>216486</v>
+        <v>395256</v>
       </c>
       <c r="G12" s="15">
-        <v>395256</v>
+        <v>142575</v>
       </c>
       <c r="H12" s="15">
-        <v>142575</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>178959</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>12960</v>
+        <v>9260</v>
       </c>
       <c r="E13" s="11">
-        <v>9260</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
@@ -851,70 +886,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>3696336</v>
+        <v>3139119</v>
       </c>
       <c r="E14" s="15">
-        <v>3139119</v>
+        <v>2670617</v>
       </c>
       <c r="F14" s="15">
-        <v>2670617</v>
+        <v>746662</v>
       </c>
       <c r="G14" s="15">
-        <v>746662</v>
+        <v>2692344</v>
       </c>
       <c r="H14" s="15">
-        <v>2692344</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3982015</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>4481034</v>
+        <v>4786627</v>
       </c>
       <c r="E15" s="11">
-        <v>4786627</v>
+        <v>5291878</v>
       </c>
       <c r="F15" s="11">
-        <v>5291878</v>
+        <v>7060714</v>
       </c>
       <c r="G15" s="11">
-        <v>7060714</v>
+        <v>6425490</v>
       </c>
       <c r="H15" s="11">
-        <v>6425490</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5182565</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>1284612</v>
+        <v>1647353</v>
       </c>
       <c r="E16" s="15">
-        <v>1647353</v>
+        <v>1198670</v>
       </c>
       <c r="F16" s="15">
-        <v>1198670</v>
+        <v>703965</v>
       </c>
       <c r="G16" s="15">
-        <v>703965</v>
+        <v>593265</v>
       </c>
       <c r="H16" s="15">
-        <v>593265</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>973304</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -935,55 +970,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>10042482</v>
+        <v>10196551</v>
       </c>
       <c r="E18" s="17">
-        <v>10196551</v>
+        <v>9377651</v>
       </c>
       <c r="F18" s="17">
-        <v>9377651</v>
+        <v>8906597</v>
       </c>
       <c r="G18" s="17">
-        <v>8906597</v>
+        <v>9853674</v>
       </c>
       <c r="H18" s="17">
-        <v>9853674</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10316843</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>43252</v>
+        <v>25355</v>
       </c>
       <c r="E19" s="11">
-        <v>25355</v>
+        <v>27296</v>
       </c>
       <c r="F19" s="11">
-        <v>27296</v>
+        <v>22818</v>
       </c>
       <c r="G19" s="11">
-        <v>22818</v>
+        <v>21492</v>
       </c>
       <c r="H19" s="11">
-        <v>21492</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19279</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>23011</v>
+        <v>6952</v>
       </c>
       <c r="E20" s="15">
         <v>6952</v>
@@ -998,7 +1033,7 @@
         <v>6952</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1019,49 +1054,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>997641</v>
+        <v>1478341</v>
       </c>
       <c r="E22" s="15">
-        <v>1478341</v>
+        <v>1503442</v>
       </c>
       <c r="F22" s="15">
-        <v>1503442</v>
+        <v>1506794</v>
       </c>
       <c r="G22" s="15">
-        <v>1506794</v>
+        <v>1482490</v>
       </c>
       <c r="H22" s="15">
-        <v>1482490</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1463147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>4604</v>
+        <v>5128</v>
       </c>
       <c r="E23" s="11">
-        <v>5128</v>
+        <v>5015</v>
       </c>
       <c r="F23" s="11">
-        <v>5015</v>
+        <v>5717</v>
       </c>
       <c r="G23" s="11">
-        <v>5717</v>
+        <v>5605</v>
       </c>
       <c r="H23" s="11">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2355501</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1082,16 +1117,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="E25" s="11">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="11">
         <v>15000</v>
@@ -1100,52 +1135,52 @@
         <v>15000</v>
       </c>
       <c r="H25" s="11">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>166967</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1068508</v>
+        <v>1570776</v>
       </c>
       <c r="E26" s="17">
-        <v>1570776</v>
+        <v>1557705</v>
       </c>
       <c r="F26" s="17">
-        <v>1557705</v>
+        <v>1557281</v>
       </c>
       <c r="G26" s="17">
-        <v>1557281</v>
+        <v>1531539</v>
       </c>
       <c r="H26" s="17">
-        <v>1531539</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4011846</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>11110990</v>
+        <v>11767327</v>
       </c>
       <c r="E27" s="19">
-        <v>11767327</v>
+        <v>10935356</v>
       </c>
       <c r="F27" s="19">
-        <v>10935356</v>
+        <v>10463878</v>
       </c>
       <c r="G27" s="19">
-        <v>10463878</v>
+        <v>11385213</v>
       </c>
       <c r="H27" s="19">
-        <v>11385213</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14328689</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1156,28 +1191,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1480340</v>
+        <v>1598910</v>
       </c>
       <c r="E29" s="15">
-        <v>1598910</v>
+        <v>1103638</v>
       </c>
       <c r="F29" s="15">
-        <v>1103638</v>
+        <v>1340888</v>
       </c>
       <c r="G29" s="15">
-        <v>1340888</v>
+        <v>1691480</v>
       </c>
       <c r="H29" s="15">
-        <v>1691480</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4536782</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1198,91 +1233,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>61472</v>
+        <v>174686</v>
       </c>
       <c r="E31" s="15">
-        <v>174686</v>
+        <v>125502</v>
       </c>
       <c r="F31" s="15">
-        <v>125502</v>
+        <v>44889</v>
       </c>
       <c r="G31" s="15">
-        <v>44889</v>
+        <v>142414</v>
       </c>
       <c r="H31" s="15">
-        <v>142414</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>54240</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>410923</v>
+        <v>289429</v>
       </c>
       <c r="E32" s="11">
-        <v>289429</v>
+        <v>221763</v>
       </c>
       <c r="F32" s="11">
-        <v>221763</v>
+        <v>233687</v>
       </c>
       <c r="G32" s="11">
-        <v>233687</v>
+        <v>191334</v>
       </c>
       <c r="H32" s="11">
-        <v>191334</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>302945</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>725308</v>
+        <v>599553</v>
       </c>
       <c r="E33" s="15">
-        <v>599553</v>
+        <v>1167984</v>
       </c>
       <c r="F33" s="15">
-        <v>1167984</v>
+        <v>1016035</v>
       </c>
       <c r="G33" s="15">
-        <v>1016035</v>
+        <v>922414</v>
       </c>
       <c r="H33" s="15">
-        <v>922414</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>751334</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>3758218</v>
+        <v>4501601</v>
       </c>
       <c r="E34" s="11">
-        <v>4501601</v>
+        <v>4538281</v>
       </c>
       <c r="F34" s="11">
-        <v>4538281</v>
+        <v>4194555</v>
       </c>
       <c r="G34" s="11">
-        <v>4194555</v>
+        <v>4245821</v>
       </c>
       <c r="H34" s="11">
-        <v>4245821</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3982036</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1324,28 +1359,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>6436261</v>
+        <v>7164179</v>
       </c>
       <c r="E37" s="17">
-        <v>7164179</v>
+        <v>7157168</v>
       </c>
       <c r="F37" s="17">
-        <v>7157168</v>
+        <v>6830054</v>
       </c>
       <c r="G37" s="17">
-        <v>6830054</v>
+        <v>7193463</v>
       </c>
       <c r="H37" s="17">
-        <v>7193463</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9627337</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1408,70 +1443,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>79859</v>
+        <v>84382</v>
       </c>
       <c r="E41" s="15">
-        <v>84382</v>
+        <v>82676</v>
       </c>
       <c r="F41" s="15">
-        <v>82676</v>
+        <v>91676</v>
       </c>
       <c r="G41" s="15">
-        <v>91676</v>
+        <v>99959</v>
       </c>
       <c r="H41" s="15">
-        <v>99959</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>107503</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>79859</v>
+        <v>84382</v>
       </c>
       <c r="E42" s="19">
-        <v>84382</v>
+        <v>82676</v>
       </c>
       <c r="F42" s="19">
-        <v>82676</v>
+        <v>91676</v>
       </c>
       <c r="G42" s="19">
-        <v>91676</v>
+        <v>99959</v>
       </c>
       <c r="H42" s="19">
-        <v>99959</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>107503</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>6516120</v>
+        <v>7248561</v>
       </c>
       <c r="E43" s="17">
-        <v>7248561</v>
+        <v>7239844</v>
       </c>
       <c r="F43" s="17">
-        <v>7239844</v>
+        <v>6921730</v>
       </c>
       <c r="G43" s="17">
-        <v>6921730</v>
+        <v>7293422</v>
       </c>
       <c r="H43" s="17">
-        <v>7293422</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9734840</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1482,13 +1517,13 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>1000000</v>
+        <v>2600000</v>
       </c>
       <c r="E45" s="15">
         <v>2600000</v>
@@ -1503,7 +1538,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1524,13 +1559,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
@@ -1545,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1587,13 +1622,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>100000</v>
+        <v>149167</v>
       </c>
       <c r="E50" s="11">
         <v>149167</v>
@@ -1602,13 +1637,13 @@
         <v>149167</v>
       </c>
       <c r="G50" s="11">
-        <v>149167</v>
+        <v>160318</v>
       </c>
       <c r="H50" s="11">
-        <v>160318</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>185421</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1713,70 +1748,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1894870</v>
+        <v>1769599</v>
       </c>
       <c r="E56" s="11">
-        <v>1769599</v>
+        <v>946345</v>
       </c>
       <c r="F56" s="11">
-        <v>946345</v>
+        <v>792981</v>
       </c>
       <c r="G56" s="11">
-        <v>792981</v>
+        <v>1331473</v>
       </c>
       <c r="H56" s="11">
-        <v>1331473</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1808428</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>4594870</v>
+        <v>4518766</v>
       </c>
       <c r="E57" s="17">
-        <v>4518766</v>
+        <v>3695512</v>
       </c>
       <c r="F57" s="17">
-        <v>3695512</v>
+        <v>3542148</v>
       </c>
       <c r="G57" s="17">
-        <v>3542148</v>
+        <v>4091791</v>
       </c>
       <c r="H57" s="17">
-        <v>4091791</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4593849</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>11110990</v>
+        <v>11767327</v>
       </c>
       <c r="E58" s="19">
-        <v>11767327</v>
+        <v>10935356</v>
       </c>
       <c r="F58" s="19">
-        <v>10935356</v>
+        <v>10463878</v>
       </c>
       <c r="G58" s="19">
-        <v>10463878</v>
+        <v>11385213</v>
       </c>
       <c r="H58" s="19">
-        <v>11385213</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14328689</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/shoyande/shegol/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9463E457-7A7B-4148-ACC5-06837A6EFBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F36D1-B9C1-4AFC-90E4-3898D6100F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-07-28</t>
+  </si>
+  <si>
+    <t>1400-11-27 (11)</t>
+  </si>
+  <si>
+    <t>1400-01-31</t>
+  </si>
+  <si>
+    <t>1400-06-16 (4)</t>
+  </si>
+  <si>
+    <t>1400-07-30 (2)</t>
   </si>
   <si>
     <t>1401-10-30 (7)</t>
@@ -698,20 +728,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +752,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +768,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +784,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +798,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +814,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +830,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +844,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +870,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +930,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +946,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>357203</v>
+      </c>
+      <c r="E12" s="15">
+        <v>425336</v>
+      </c>
+      <c r="F12" s="15">
+        <v>377043</v>
+      </c>
+      <c r="G12" s="15">
+        <v>507591</v>
+      </c>
+      <c r="H12" s="15">
+        <v>567540</v>
+      </c>
+      <c r="I12" s="15">
         <v>614192</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>216486</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>395256</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>142575</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>178959</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>12960</v>
+      </c>
+      <c r="E13" s="11">
         <v>9260</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>12960</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>12960</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+        <v>12960</v>
+      </c>
+      <c r="I13" s="11">
+        <v>9260</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>2138651</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2451899</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2564253</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2804515</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3696336</v>
+      </c>
+      <c r="I14" s="15">
         <v>3139119</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>2670617</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>746662</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>2692344</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>3982015</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>2413318</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3103247</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4608037</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4299869</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4481034</v>
+      </c>
+      <c r="I15" s="11">
         <v>4786627</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>5291878</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>7060714</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>6425490</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>5182565</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>892863</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1248286</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1163102</v>
+      </c>
+      <c r="G16" s="15">
+        <v>968050</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1284612</v>
+      </c>
+      <c r="I16" s="15">
         <v>1647353</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>1198670</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>703965</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>593265</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>973304</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,73 +1152,133 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>5814995</v>
+      </c>
+      <c r="E18" s="17">
+        <v>7238028</v>
+      </c>
+      <c r="F18" s="17">
+        <v>8725395</v>
+      </c>
+      <c r="G18" s="17">
+        <v>8592985</v>
+      </c>
+      <c r="H18" s="17">
+        <v>10042482</v>
+      </c>
+      <c r="I18" s="17">
         <v>10196551</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>9377651</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>8906597</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>9853674</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>10316843</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>9892</v>
+      </c>
+      <c r="E19" s="11">
+        <v>15591</v>
+      </c>
+      <c r="F19" s="11">
+        <v>18420</v>
+      </c>
+      <c r="G19" s="11">
+        <v>19860</v>
+      </c>
+      <c r="H19" s="11">
+        <v>43252</v>
+      </c>
+      <c r="I19" s="11">
         <v>25355</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>27296</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>22818</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>21492</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>19279</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>6952</v>
+        <v>3251</v>
       </c>
       <c r="E20" s="15">
         <v>6952</v>
       </c>
       <c r="F20" s="15">
+        <v>43252</v>
+      </c>
+      <c r="G20" s="15">
+        <v>43252</v>
+      </c>
+      <c r="H20" s="15">
+        <v>23011</v>
+      </c>
+      <c r="I20" s="15">
         <v>6952</v>
       </c>
-      <c r="G20" s="15">
+      <c r="J20" s="15">
         <v>6952</v>
       </c>
-      <c r="H20" s="15">
+      <c r="K20" s="15">
         <v>6952</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L20" s="15">
+        <v>6952</v>
+      </c>
+      <c r="M20" s="15">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1296,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>351455</v>
+      </c>
+      <c r="E22" s="15">
+        <v>424778</v>
+      </c>
+      <c r="F22" s="15">
+        <v>747345</v>
+      </c>
+      <c r="G22" s="15">
+        <v>846978</v>
+      </c>
+      <c r="H22" s="15">
+        <v>997641</v>
+      </c>
+      <c r="I22" s="15">
         <v>1478341</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>1503442</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>1506794</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>1482490</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>1463147</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>2238</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2173</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2403</v>
+      </c>
+      <c r="G23" s="11">
+        <v>4413</v>
+      </c>
+      <c r="H23" s="11">
+        <v>4604</v>
+      </c>
+      <c r="I23" s="11">
         <v>5128</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>5015</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>5717</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>5605</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>2355501</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
         <v>15000</v>
       </c>
       <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>55000</v>
+      </c>
+      <c r="J25" s="11">
         <v>15000</v>
       </c>
-      <c r="G25" s="11">
+      <c r="K25" s="11">
         <v>15000</v>
       </c>
-      <c r="H25" s="11">
+      <c r="L25" s="11">
+        <v>15000</v>
+      </c>
+      <c r="M25" s="11">
         <v>166967</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>366836</v>
+      </c>
+      <c r="E26" s="17">
+        <v>464494</v>
+      </c>
+      <c r="F26" s="17">
+        <v>811420</v>
+      </c>
+      <c r="G26" s="17">
+        <v>914503</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1068508</v>
+      </c>
+      <c r="I26" s="17">
         <v>1570776</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>1557705</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>1557281</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>1531539</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>4011846</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>6181831</v>
+      </c>
+      <c r="E27" s="19">
+        <v>7702522</v>
+      </c>
+      <c r="F27" s="19">
+        <v>9536815</v>
+      </c>
+      <c r="G27" s="19">
+        <v>9507488</v>
+      </c>
+      <c r="H27" s="19">
+        <v>11110990</v>
+      </c>
+      <c r="I27" s="19">
         <v>11767327</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>10935356</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>10463878</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>11385213</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>14328689</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1538,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>1328138</v>
+      </c>
+      <c r="E29" s="15">
+        <v>726049</v>
+      </c>
+      <c r="F29" s="15">
+        <v>943245</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1012381</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1480340</v>
+      </c>
+      <c r="I29" s="15">
         <v>1598910</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>1103638</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>1340888</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>1691480</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>4536782</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>26005</v>
+      </c>
+      <c r="E31" s="15">
+        <v>6073</v>
+      </c>
+      <c r="F31" s="15">
+        <v>7694</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1080</v>
+      </c>
+      <c r="H31" s="15">
+        <v>61472</v>
+      </c>
+      <c r="I31" s="15">
         <v>174686</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>125502</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>44889</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>142414</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>54240</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>425856</v>
+      </c>
+      <c r="E32" s="11">
+        <v>482023</v>
+      </c>
+      <c r="F32" s="11">
+        <v>538286</v>
+      </c>
+      <c r="G32" s="11">
+        <v>499455</v>
+      </c>
+      <c r="H32" s="11">
+        <v>410923</v>
+      </c>
+      <c r="I32" s="11">
         <v>289429</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>221763</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>233687</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>191334</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>302945</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>67823</v>
+      </c>
+      <c r="E33" s="15">
+        <v>606718</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1735308</v>
+      </c>
+      <c r="G33" s="15">
+        <v>823904</v>
+      </c>
+      <c r="H33" s="15">
+        <v>725308</v>
+      </c>
+      <c r="I33" s="15">
         <v>599553</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>1167984</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>1016035</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>922414</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>751334</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>1098435</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1936750</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3316751</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3100231</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3758218</v>
+      </c>
+      <c r="I34" s="11">
         <v>4501601</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>4538281</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>4194555</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>4245821</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>3982036</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1780,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1816,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>2946257</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3757613</v>
+      </c>
+      <c r="F37" s="17">
+        <v>6541284</v>
+      </c>
+      <c r="G37" s="17">
+        <v>5437051</v>
+      </c>
+      <c r="H37" s="17">
+        <v>6436261</v>
+      </c>
+      <c r="I37" s="17">
         <v>7164179</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>7157168</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>6830054</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>7193463</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>9627337</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,31 +1888,61 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1960,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>66469</v>
+      </c>
+      <c r="E41" s="15">
+        <v>59482</v>
+      </c>
+      <c r="F41" s="15">
+        <v>62777</v>
+      </c>
+      <c r="G41" s="15">
+        <v>72504</v>
+      </c>
+      <c r="H41" s="15">
+        <v>79859</v>
+      </c>
+      <c r="I41" s="15">
         <v>84382</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>82676</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>91676</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>99959</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>107503</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>66469</v>
+      </c>
+      <c r="E42" s="19">
+        <v>59482</v>
+      </c>
+      <c r="F42" s="19">
+        <v>62777</v>
+      </c>
+      <c r="G42" s="19">
+        <v>72504</v>
+      </c>
+      <c r="H42" s="19">
+        <v>79859</v>
+      </c>
+      <c r="I42" s="19">
         <v>84382</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>82676</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>91676</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>99959</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>107503</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>3012726</v>
+      </c>
+      <c r="E43" s="17">
+        <v>3817095</v>
+      </c>
+      <c r="F43" s="17">
+        <v>6604061</v>
+      </c>
+      <c r="G43" s="17">
+        <v>5509555</v>
+      </c>
+      <c r="H43" s="17">
+        <v>6516120</v>
+      </c>
+      <c r="I43" s="17">
         <v>7248561</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>7239844</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>6921730</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>7293422</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>9734840</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2094,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="I45" s="15">
         <v>2600000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="J45" s="15">
         <v>2600000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>2600000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>2600000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>2600000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2156,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1574,15 +2187,30 @@
         <v>0</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1600000</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2228,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2264,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I50" s="11">
         <v>149167</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>149167</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>149167</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>160318</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>185421</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2336,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2408,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2480,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>2069105</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2785427</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1832754</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1297933</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1894870</v>
+      </c>
+      <c r="I56" s="11">
         <v>1769599</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>946345</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>792981</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>1331473</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>1808428</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>3169105</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3885427</v>
+      </c>
+      <c r="F57" s="17">
+        <v>2932754</v>
+      </c>
+      <c r="G57" s="17">
+        <v>3997933</v>
+      </c>
+      <c r="H57" s="17">
+        <v>4594870</v>
+      </c>
+      <c r="I57" s="17">
         <v>4518766</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>3695512</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>3542148</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>4091791</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>4593849</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>6181831</v>
+      </c>
+      <c r="E58" s="19">
+        <v>7702522</v>
+      </c>
+      <c r="F58" s="19">
+        <v>9536815</v>
+      </c>
+      <c r="G58" s="19">
+        <v>9507488</v>
+      </c>
+      <c r="H58" s="19">
+        <v>11110990</v>
+      </c>
+      <c r="I58" s="19">
         <v>11767327</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>10935356</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>10463878</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>11385213</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>14328689</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2612,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shoyande/shegol/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F36D1-B9C1-4AFC-90E4-3898D6100F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6558EDDB-E089-44AD-9022-314D490115F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-07-28</t>
-  </si>
-  <si>
     <t>1400-11-27 (11)</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t>1400-07-30 (2)</t>
   </si>
   <si>
-    <t>1401-10-30 (7)</t>
+    <t>1401-12-16 (8)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -97,7 +94,10 @@
     <t>1401-08-06</t>
   </si>
   <si>
-    <t>1401-10-30</t>
+    <t>1402-02-03 (3)</t>
+  </si>
+  <si>
+    <t>1402-02-03</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,19 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -758,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -804,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -850,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -936,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -952,52 +952,52 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>357203</v>
+        <v>425336</v>
       </c>
       <c r="E12" s="15">
-        <v>425336</v>
+        <v>377043</v>
       </c>
       <c r="F12" s="15">
-        <v>377043</v>
+        <v>507591</v>
       </c>
       <c r="G12" s="15">
-        <v>507591</v>
+        <v>567540</v>
       </c>
       <c r="H12" s="15">
-        <v>567540</v>
+        <v>614192</v>
       </c>
       <c r="I12" s="15">
-        <v>614192</v>
+        <v>216486</v>
       </c>
       <c r="J12" s="15">
-        <v>216486</v>
+        <v>395256</v>
       </c>
       <c r="K12" s="15">
-        <v>395256</v>
+        <v>142575</v>
       </c>
       <c r="L12" s="15">
-        <v>142575</v>
+        <v>181807</v>
       </c>
       <c r="M12" s="15">
-        <v>178959</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>122730</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>9260</v>
+      </c>
+      <c r="E13" s="11">
         <v>12960</v>
-      </c>
-      <c r="E13" s="11">
-        <v>9260</v>
       </c>
       <c r="F13" s="11">
         <v>12960</v>
@@ -1006,10 +1006,10 @@
         <v>12960</v>
       </c>
       <c r="H13" s="11">
-        <v>12960</v>
+        <v>9260</v>
       </c>
       <c r="I13" s="11">
-        <v>9260</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -1024,115 +1024,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>2138651</v>
+        <v>2451899</v>
       </c>
       <c r="E14" s="15">
-        <v>2451899</v>
+        <v>2564253</v>
       </c>
       <c r="F14" s="15">
-        <v>2564253</v>
+        <v>2804515</v>
       </c>
       <c r="G14" s="15">
-        <v>2804515</v>
+        <v>3696336</v>
       </c>
       <c r="H14" s="15">
-        <v>3696336</v>
+        <v>3139119</v>
       </c>
       <c r="I14" s="15">
-        <v>3139119</v>
+        <v>2670617</v>
       </c>
       <c r="J14" s="15">
-        <v>2670617</v>
+        <v>746662</v>
       </c>
       <c r="K14" s="15">
-        <v>746662</v>
+        <v>2692344</v>
       </c>
       <c r="L14" s="15">
-        <v>2692344</v>
+        <v>4159998</v>
       </c>
       <c r="M14" s="15">
-        <v>3982015</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5734954</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>2413318</v>
+        <v>3103247</v>
       </c>
       <c r="E15" s="11">
-        <v>3103247</v>
+        <v>4608037</v>
       </c>
       <c r="F15" s="11">
-        <v>4608037</v>
+        <v>4299869</v>
       </c>
       <c r="G15" s="11">
-        <v>4299869</v>
+        <v>4481034</v>
       </c>
       <c r="H15" s="11">
-        <v>4481034</v>
+        <v>4786627</v>
       </c>
       <c r="I15" s="11">
-        <v>4786627</v>
+        <v>5291878</v>
       </c>
       <c r="J15" s="11">
-        <v>5291878</v>
+        <v>7060714</v>
       </c>
       <c r="K15" s="11">
-        <v>7060714</v>
+        <v>6425490</v>
       </c>
       <c r="L15" s="11">
-        <v>6425490</v>
+        <v>5182565</v>
       </c>
       <c r="M15" s="11">
-        <v>5182565</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5089444</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>892863</v>
+        <v>1248286</v>
       </c>
       <c r="E16" s="15">
-        <v>1248286</v>
+        <v>1163102</v>
       </c>
       <c r="F16" s="15">
-        <v>1163102</v>
+        <v>968050</v>
       </c>
       <c r="G16" s="15">
-        <v>968050</v>
+        <v>1284612</v>
       </c>
       <c r="H16" s="15">
-        <v>1284612</v>
+        <v>1647353</v>
       </c>
       <c r="I16" s="15">
-        <v>1647353</v>
+        <v>1198670</v>
       </c>
       <c r="J16" s="15">
-        <v>1198670</v>
+        <v>703965</v>
       </c>
       <c r="K16" s="15">
-        <v>703965</v>
+        <v>593265</v>
       </c>
       <c r="L16" s="15">
-        <v>593265</v>
+        <v>776729</v>
       </c>
       <c r="M16" s="15">
-        <v>973304</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>533253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1168,97 +1168,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>5814995</v>
+        <v>7238028</v>
       </c>
       <c r="E18" s="17">
-        <v>7238028</v>
+        <v>8725395</v>
       </c>
       <c r="F18" s="17">
-        <v>8725395</v>
+        <v>8592985</v>
       </c>
       <c r="G18" s="17">
-        <v>8592985</v>
+        <v>10042482</v>
       </c>
       <c r="H18" s="17">
-        <v>10042482</v>
+        <v>10196551</v>
       </c>
       <c r="I18" s="17">
-        <v>10196551</v>
+        <v>9377651</v>
       </c>
       <c r="J18" s="17">
-        <v>9377651</v>
+        <v>8906597</v>
       </c>
       <c r="K18" s="17">
-        <v>8906597</v>
+        <v>9853674</v>
       </c>
       <c r="L18" s="17">
-        <v>9853674</v>
+        <v>10301099</v>
       </c>
       <c r="M18" s="17">
-        <v>10316843</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11480381</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>9892</v>
+        <v>15591</v>
       </c>
       <c r="E19" s="11">
-        <v>15591</v>
+        <v>18420</v>
       </c>
       <c r="F19" s="11">
-        <v>18420</v>
+        <v>19860</v>
       </c>
       <c r="G19" s="11">
-        <v>19860</v>
+        <v>43252</v>
       </c>
       <c r="H19" s="11">
-        <v>43252</v>
+        <v>25355</v>
       </c>
       <c r="I19" s="11">
-        <v>25355</v>
+        <v>27296</v>
       </c>
       <c r="J19" s="11">
-        <v>27296</v>
+        <v>22818</v>
       </c>
       <c r="K19" s="11">
-        <v>22818</v>
+        <v>21492</v>
       </c>
       <c r="L19" s="11">
-        <v>21492</v>
+        <v>19279</v>
       </c>
       <c r="M19" s="11">
-        <v>19279</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17847</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>3251</v>
+        <v>6952</v>
       </c>
       <c r="E20" s="15">
-        <v>6952</v>
+        <v>43252</v>
       </c>
       <c r="F20" s="15">
         <v>43252</v>
       </c>
       <c r="G20" s="15">
-        <v>43252</v>
+        <v>23011</v>
       </c>
       <c r="H20" s="15">
-        <v>23011</v>
+        <v>6952</v>
       </c>
       <c r="I20" s="15">
         <v>6952</v>
@@ -1276,7 +1276,7 @@
         <v>6952</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1312,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>351455</v>
+        <v>424778</v>
       </c>
       <c r="E22" s="15">
-        <v>424778</v>
+        <v>747345</v>
       </c>
       <c r="F22" s="15">
-        <v>747345</v>
+        <v>846978</v>
       </c>
       <c r="G22" s="15">
-        <v>846978</v>
+        <v>997641</v>
       </c>
       <c r="H22" s="15">
-        <v>997641</v>
+        <v>1478341</v>
       </c>
       <c r="I22" s="15">
-        <v>1478341</v>
+        <v>1503442</v>
       </c>
       <c r="J22" s="15">
-        <v>1503442</v>
+        <v>1506794</v>
       </c>
       <c r="K22" s="15">
-        <v>1506794</v>
+        <v>1482490</v>
       </c>
       <c r="L22" s="15">
-        <v>1482490</v>
+        <v>1428927</v>
       </c>
       <c r="M22" s="15">
-        <v>1463147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1316913</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>2238</v>
+        <v>2173</v>
       </c>
       <c r="E23" s="11">
-        <v>2173</v>
+        <v>2403</v>
       </c>
       <c r="F23" s="11">
-        <v>2403</v>
+        <v>4413</v>
       </c>
       <c r="G23" s="11">
-        <v>4413</v>
+        <v>4604</v>
       </c>
       <c r="H23" s="11">
-        <v>4604</v>
+        <v>5128</v>
       </c>
       <c r="I23" s="11">
-        <v>5128</v>
+        <v>5015</v>
       </c>
       <c r="J23" s="11">
-        <v>5015</v>
+        <v>5717</v>
       </c>
       <c r="K23" s="11">
-        <v>5717</v>
+        <v>5605</v>
       </c>
       <c r="L23" s="11">
-        <v>5605</v>
+        <v>2355501</v>
       </c>
       <c r="M23" s="11">
-        <v>2355501</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2355389</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1420,28 +1420,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>55000</v>
+      </c>
+      <c r="I25" s="11">
         <v>15000</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>55000</v>
       </c>
       <c r="J25" s="11">
         <v>15000</v>
@@ -1453,82 +1453,82 @@
         <v>15000</v>
       </c>
       <c r="M25" s="11">
-        <v>166967</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>366836</v>
+        <v>464494</v>
       </c>
       <c r="E26" s="17">
-        <v>464494</v>
+        <v>811420</v>
       </c>
       <c r="F26" s="17">
-        <v>811420</v>
+        <v>914503</v>
       </c>
       <c r="G26" s="17">
-        <v>914503</v>
+        <v>1068508</v>
       </c>
       <c r="H26" s="17">
-        <v>1068508</v>
+        <v>1570776</v>
       </c>
       <c r="I26" s="17">
-        <v>1570776</v>
+        <v>1557705</v>
       </c>
       <c r="J26" s="17">
-        <v>1557705</v>
+        <v>1557281</v>
       </c>
       <c r="K26" s="17">
-        <v>1557281</v>
+        <v>1531539</v>
       </c>
       <c r="L26" s="17">
-        <v>1531539</v>
+        <v>3825659</v>
       </c>
       <c r="M26" s="17">
-        <v>4011846</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3712101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>6181831</v>
+        <v>7702522</v>
       </c>
       <c r="E27" s="19">
-        <v>7702522</v>
+        <v>9536815</v>
       </c>
       <c r="F27" s="19">
-        <v>9536815</v>
+        <v>9507488</v>
       </c>
       <c r="G27" s="19">
-        <v>9507488</v>
+        <v>11110990</v>
       </c>
       <c r="H27" s="19">
-        <v>11110990</v>
+        <v>11767327</v>
       </c>
       <c r="I27" s="19">
-        <v>11767327</v>
+        <v>10935356</v>
       </c>
       <c r="J27" s="19">
-        <v>10935356</v>
+        <v>10463878</v>
       </c>
       <c r="K27" s="19">
-        <v>10463878</v>
+        <v>11385213</v>
       </c>
       <c r="L27" s="19">
-        <v>11385213</v>
+        <v>14126758</v>
       </c>
       <c r="M27" s="19">
-        <v>14328689</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15192482</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1544,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1328138</v>
+        <v>726049</v>
       </c>
       <c r="E29" s="15">
-        <v>726049</v>
+        <v>943245</v>
       </c>
       <c r="F29" s="15">
-        <v>943245</v>
+        <v>1012381</v>
       </c>
       <c r="G29" s="15">
-        <v>1012381</v>
+        <v>1480340</v>
       </c>
       <c r="H29" s="15">
-        <v>1480340</v>
+        <v>1598910</v>
       </c>
       <c r="I29" s="15">
-        <v>1598910</v>
+        <v>1103638</v>
       </c>
       <c r="J29" s="15">
-        <v>1103638</v>
+        <v>1340888</v>
       </c>
       <c r="K29" s="15">
-        <v>1340888</v>
+        <v>1691480</v>
       </c>
       <c r="L29" s="15">
-        <v>1691480</v>
+        <v>3757924</v>
       </c>
       <c r="M29" s="15">
-        <v>4536782</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4518031</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1616,151 +1616,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>26005</v>
+        <v>6073</v>
       </c>
       <c r="E31" s="15">
-        <v>6073</v>
+        <v>7694</v>
       </c>
       <c r="F31" s="15">
-        <v>7694</v>
+        <v>1080</v>
       </c>
       <c r="G31" s="15">
-        <v>1080</v>
+        <v>61472</v>
       </c>
       <c r="H31" s="15">
-        <v>61472</v>
+        <v>174686</v>
       </c>
       <c r="I31" s="15">
-        <v>174686</v>
+        <v>125502</v>
       </c>
       <c r="J31" s="15">
-        <v>125502</v>
+        <v>44889</v>
       </c>
       <c r="K31" s="15">
-        <v>44889</v>
+        <v>142414</v>
       </c>
       <c r="L31" s="15">
-        <v>142414</v>
+        <v>54240</v>
       </c>
       <c r="M31" s="15">
-        <v>54240</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>40266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>425856</v>
+        <v>482023</v>
       </c>
       <c r="E32" s="11">
-        <v>482023</v>
+        <v>538286</v>
       </c>
       <c r="F32" s="11">
-        <v>538286</v>
+        <v>499455</v>
       </c>
       <c r="G32" s="11">
-        <v>499455</v>
+        <v>410923</v>
       </c>
       <c r="H32" s="11">
-        <v>410923</v>
+        <v>289429</v>
       </c>
       <c r="I32" s="11">
-        <v>289429</v>
+        <v>221763</v>
       </c>
       <c r="J32" s="11">
-        <v>221763</v>
+        <v>233687</v>
       </c>
       <c r="K32" s="11">
-        <v>233687</v>
+        <v>191334</v>
       </c>
       <c r="L32" s="11">
-        <v>191334</v>
+        <v>196066</v>
       </c>
       <c r="M32" s="11">
-        <v>302945</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>266672</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>67823</v>
+        <v>606718</v>
       </c>
       <c r="E33" s="15">
-        <v>606718</v>
+        <v>1735308</v>
       </c>
       <c r="F33" s="15">
-        <v>1735308</v>
+        <v>823904</v>
       </c>
       <c r="G33" s="15">
-        <v>823904</v>
+        <v>725308</v>
       </c>
       <c r="H33" s="15">
-        <v>725308</v>
+        <v>599553</v>
       </c>
       <c r="I33" s="15">
-        <v>599553</v>
+        <v>1167984</v>
       </c>
       <c r="J33" s="15">
-        <v>1167984</v>
+        <v>1016035</v>
       </c>
       <c r="K33" s="15">
-        <v>1016035</v>
+        <v>922414</v>
       </c>
       <c r="L33" s="15">
-        <v>922414</v>
+        <v>751334</v>
       </c>
       <c r="M33" s="15">
-        <v>751334</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2288402</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>1098435</v>
+        <v>1936750</v>
       </c>
       <c r="E34" s="11">
-        <v>1936750</v>
+        <v>3316751</v>
       </c>
       <c r="F34" s="11">
-        <v>3316751</v>
+        <v>3100231</v>
       </c>
       <c r="G34" s="11">
-        <v>3100231</v>
+        <v>3758218</v>
       </c>
       <c r="H34" s="11">
-        <v>3758218</v>
+        <v>4501601</v>
       </c>
       <c r="I34" s="11">
-        <v>4501601</v>
+        <v>4538281</v>
       </c>
       <c r="J34" s="11">
-        <v>4538281</v>
+        <v>4194555</v>
       </c>
       <c r="K34" s="11">
-        <v>4194555</v>
+        <v>4245821</v>
       </c>
       <c r="L34" s="11">
-        <v>4245821</v>
+        <v>3982036</v>
       </c>
       <c r="M34" s="11">
-        <v>3982036</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3774965</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1832,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>2946257</v>
+        <v>3757613</v>
       </c>
       <c r="E37" s="17">
-        <v>3757613</v>
+        <v>6541284</v>
       </c>
       <c r="F37" s="17">
-        <v>6541284</v>
+        <v>5437051</v>
       </c>
       <c r="G37" s="17">
-        <v>5437051</v>
+        <v>6436261</v>
       </c>
       <c r="H37" s="17">
-        <v>6436261</v>
+        <v>7164179</v>
       </c>
       <c r="I37" s="17">
-        <v>7164179</v>
+        <v>7157168</v>
       </c>
       <c r="J37" s="17">
-        <v>7157168</v>
+        <v>6830054</v>
       </c>
       <c r="K37" s="17">
-        <v>6830054</v>
+        <v>7193463</v>
       </c>
       <c r="L37" s="17">
-        <v>7193463</v>
+        <v>8741600</v>
       </c>
       <c r="M37" s="17">
-        <v>9627337</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10888336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="L38" s="11">
-        <v>0</v>
+        <v>705000</v>
       </c>
       <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>705000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1976,115 +1976,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>66469</v>
+        <v>59482</v>
       </c>
       <c r="E41" s="15">
-        <v>59482</v>
+        <v>62777</v>
       </c>
       <c r="F41" s="15">
-        <v>62777</v>
+        <v>72504</v>
       </c>
       <c r="G41" s="15">
-        <v>72504</v>
+        <v>79859</v>
       </c>
       <c r="H41" s="15">
-        <v>79859</v>
+        <v>84382</v>
       </c>
       <c r="I41" s="15">
-        <v>84382</v>
+        <v>82676</v>
       </c>
       <c r="J41" s="15">
-        <v>82676</v>
+        <v>91676</v>
       </c>
       <c r="K41" s="15">
-        <v>91676</v>
+        <v>99959</v>
       </c>
       <c r="L41" s="15">
-        <v>99959</v>
+        <v>107503</v>
       </c>
       <c r="M41" s="15">
-        <v>107503</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>112755</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>66469</v>
+        <v>59482</v>
       </c>
       <c r="E42" s="19">
-        <v>59482</v>
+        <v>62777</v>
       </c>
       <c r="F42" s="19">
-        <v>62777</v>
+        <v>72504</v>
       </c>
       <c r="G42" s="19">
-        <v>72504</v>
+        <v>79859</v>
       </c>
       <c r="H42" s="19">
-        <v>79859</v>
+        <v>84382</v>
       </c>
       <c r="I42" s="19">
-        <v>84382</v>
+        <v>82676</v>
       </c>
       <c r="J42" s="19">
-        <v>82676</v>
+        <v>91676</v>
       </c>
       <c r="K42" s="19">
-        <v>91676</v>
+        <v>99959</v>
       </c>
       <c r="L42" s="19">
-        <v>99959</v>
+        <v>812503</v>
       </c>
       <c r="M42" s="19">
-        <v>107503</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>817755</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>3012726</v>
+        <v>3817095</v>
       </c>
       <c r="E43" s="17">
-        <v>3817095</v>
+        <v>6604061</v>
       </c>
       <c r="F43" s="17">
-        <v>6604061</v>
+        <v>5509555</v>
       </c>
       <c r="G43" s="17">
-        <v>5509555</v>
+        <v>6516120</v>
       </c>
       <c r="H43" s="17">
-        <v>6516120</v>
+        <v>7248561</v>
       </c>
       <c r="I43" s="17">
-        <v>7248561</v>
+        <v>7239844</v>
       </c>
       <c r="J43" s="17">
-        <v>7239844</v>
+        <v>6921730</v>
       </c>
       <c r="K43" s="17">
-        <v>6921730</v>
+        <v>7293422</v>
       </c>
       <c r="L43" s="17">
-        <v>7293422</v>
+        <v>9554103</v>
       </c>
       <c r="M43" s="17">
-        <v>9734840</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11706091</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>1000000</v>
       </c>
       <c r="H45" s="15">
-        <v>1000000</v>
+        <v>2600000</v>
       </c>
       <c r="I45" s="15">
         <v>2600000</v>
@@ -2136,7 +2136,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2184,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="G47" s="15">
         <v>1600000</v>
       </c>
       <c r="H47" s="15">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>100000</v>
       </c>
       <c r="H50" s="11">
-        <v>100000</v>
+        <v>149167</v>
       </c>
       <c r="I50" s="11">
         <v>149167</v>
@@ -2307,16 +2307,16 @@
         <v>149167</v>
       </c>
       <c r="K50" s="11">
-        <v>149167</v>
+        <v>160318</v>
       </c>
       <c r="L50" s="11">
-        <v>160318</v>
+        <v>184361</v>
       </c>
       <c r="M50" s="11">
-        <v>185421</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>208048</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2496,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2069105</v>
+        <v>2785427</v>
       </c>
       <c r="E56" s="11">
-        <v>2785427</v>
+        <v>1832754</v>
       </c>
       <c r="F56" s="11">
-        <v>1832754</v>
+        <v>1297933</v>
       </c>
       <c r="G56" s="11">
-        <v>1297933</v>
+        <v>1894870</v>
       </c>
       <c r="H56" s="11">
-        <v>1894870</v>
+        <v>1769599</v>
       </c>
       <c r="I56" s="11">
-        <v>1769599</v>
+        <v>946345</v>
       </c>
       <c r="J56" s="11">
-        <v>946345</v>
+        <v>792981</v>
       </c>
       <c r="K56" s="11">
-        <v>792981</v>
+        <v>1331473</v>
       </c>
       <c r="L56" s="11">
-        <v>1331473</v>
+        <v>1788294</v>
       </c>
       <c r="M56" s="11">
-        <v>1808428</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>678343</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3169105</v>
+        <v>3885427</v>
       </c>
       <c r="E57" s="17">
-        <v>3885427</v>
+        <v>2932754</v>
       </c>
       <c r="F57" s="17">
-        <v>2932754</v>
+        <v>3997933</v>
       </c>
       <c r="G57" s="17">
-        <v>3997933</v>
+        <v>4594870</v>
       </c>
       <c r="H57" s="17">
-        <v>4594870</v>
+        <v>4518766</v>
       </c>
       <c r="I57" s="17">
-        <v>4518766</v>
+        <v>3695512</v>
       </c>
       <c r="J57" s="17">
-        <v>3695512</v>
+        <v>3542148</v>
       </c>
       <c r="K57" s="17">
-        <v>3542148</v>
+        <v>4091791</v>
       </c>
       <c r="L57" s="17">
-        <v>4091791</v>
+        <v>4572655</v>
       </c>
       <c r="M57" s="17">
-        <v>4593849</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3486391</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>6181831</v>
+        <v>7702522</v>
       </c>
       <c r="E58" s="19">
-        <v>7702522</v>
+        <v>9536815</v>
       </c>
       <c r="F58" s="19">
-        <v>9536815</v>
+        <v>9507488</v>
       </c>
       <c r="G58" s="19">
-        <v>9507488</v>
+        <v>11110990</v>
       </c>
       <c r="H58" s="19">
-        <v>11110990</v>
+        <v>11767327</v>
       </c>
       <c r="I58" s="19">
-        <v>11767327</v>
+        <v>10935356</v>
       </c>
       <c r="J58" s="19">
-        <v>10935356</v>
+        <v>10463878</v>
       </c>
       <c r="K58" s="19">
-        <v>10463878</v>
+        <v>11385213</v>
       </c>
       <c r="L58" s="19">
-        <v>11385213</v>
+        <v>14126758</v>
       </c>
       <c r="M58" s="19">
-        <v>14328689</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15192482</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
